--- a/RailsClient/uploadfiles/template/led_template.xlsx
+++ b/RailsClient/uploadfiles/template/led_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="257" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="267" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,15 +17,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>LED编号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <r>
+      <t xml:space="preserve">LED</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">编号</t>
+    </r>
   </si>
   <si>
     <t>名称</t>
   </si>
   <si>
-    <t>控制器IP</t>
+    <r>
+      <t xml:space="preserve">控制器</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="文泉驿正黑"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">IP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">新控制器</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">IP</t>
+    </r>
   </si>
   <si>
     <t>所属库位</t>
@@ -80,7 +114,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="文泉驿正黑"/>
       <charset val="1"/>
@@ -100,6 +134,16 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="文泉驿正黑"/>
+      <family val="2"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -145,8 +189,15 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+  <cellXfs count="2">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -164,46 +215,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
-      <selection activeCell="D22" activeCellId="0" pane="topLeft" sqref="D22"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+      <selection activeCell="D5" activeCellId="0" pane="topLeft" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.1"/>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.35" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -211,8 +263,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -224,69 +276,69 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
       <selection activeCell="B13" activeCellId="0" pane="topLeft" sqref="B13"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.678431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6785714285714"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>12</v>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>13</v>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>14</v>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>16</v>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>17</v>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -294,8 +346,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -311,16 +363,14 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>